--- a/docs/Gantt.xlsx
+++ b/docs/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor.dahl\Documents\GitHub\paca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECFC5A-1C7D-43F8-9A41-412E11256759}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA940DB-24B8-477F-9FB5-71CBB540494A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>PERIODS</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Plan Duration</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
   </si>
   <si>
     <t>Sprint 2</t>
@@ -319,7 +316,34 @@
     <t>ACTUAL HOURS</t>
   </si>
   <si>
-    <t>psql databas &amp; exempeldata</t>
+    <t>Beskrivning produkt &amp; projekt</t>
+  </si>
+  <si>
+    <t>Gnatt</t>
+  </si>
+  <si>
+    <t>Riskanalys</t>
+  </si>
+  <si>
+    <t>Konkurrentanalys</t>
+  </si>
+  <si>
+    <t>PSQL Databas</t>
+  </si>
+  <si>
+    <t>PSQL Exempeldata</t>
+  </si>
+  <si>
+    <t>RS möte</t>
+  </si>
+  <si>
+    <t>Förberedelser</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
   </si>
 </sst>
 </file>
@@ -329,7 +353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/m"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -440,26 +464,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -519,6 +527,13 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -581,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -658,21 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -697,7 +697,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,10 +753,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,43 +825,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="8" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
@@ -877,7 +861,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -886,32 +870,80 @@
     <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="20" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -919,23 +951,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -949,23 +972,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="20">
     <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Calculation" xfId="20" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="19" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
@@ -973,7 +987,6 @@
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="19" builtinId="21"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -982,7 +995,35 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="138">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -997,19 +1038,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1044,34 +1141,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1083,75 +1152,10 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
+          <color theme="7"/>
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1277,6 +1281,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -1392,6 +1405,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1403,47 +1444,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1460,75 +1529,10 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
+          <color theme="7"/>
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1536,6 +1540,34 @@
         <top style="thin">
           <color theme="7"/>
         </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1554,10 +1586,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1565,34 +1662,6 @@
         <top style="thin">
           <color theme="7"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1611,75 +1680,10 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
+          <color theme="7"/>
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1805,6 +1809,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -1920,6 +1933,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1931,6 +1972,91 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
         </bottom>
         <vertical/>
@@ -1944,6 +2070,458 @@
         </top>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2607,136 +3185,133 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AC11"/>
+  <dimension ref="B1:AC15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="N16" sqref="B1:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="3" width="31" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="4" customWidth="1"/>
-    <col min="10" max="22" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="10.77734375" style="1" customWidth="1"/>
     <col min="23" max="28" width="3.33203125" style="1" customWidth="1"/>
     <col min="29" max="34" width="3.33203125" customWidth="1"/>
     <col min="35" max="36" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+    <row r="1" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="10"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="10"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="19"/>
     </row>
     <row r="3" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="10"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="54"/>
       <c r="AA3"/>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
     </row>
     <row r="4" spans="2:29" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="35">
         <f ca="1">WEEKNUM(TODAY())</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>33</v>
+      <c r="B5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="59" t="s">
-        <v>9</v>
+      <c r="I5" s="60" t="s">
+        <v>58</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>0</v>
@@ -2758,15 +3333,15 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="39">
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="34">
         <v>10</v>
       </c>
       <c r="K6" s="3">
@@ -2809,62 +3384,63 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="2:29" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="31">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="5">
+        <f>E7</f>
         <v>10</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="29">
-        <f>AVERAGE(I8:I11)</f>
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>34</v>
+      <c r="C8" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>10</v>
+        <f t="shared" ref="G8:G15" si="0">E8</f>
+        <v>12</v>
       </c>
       <c r="H8" s="5">
+        <f>F8</f>
         <v>1</v>
       </c>
       <c r="I8" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="U8"/>
       <c r="V8"/>
@@ -2877,10 +3453,10 @@
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="5">
@@ -2890,6 +3466,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H9" s="5">
@@ -2909,23 +3486,25 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H10" s="5">
-        <v>2</v>
+        <f t="shared" ref="H10:H15" si="1">F10</f>
+        <v>1</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -2941,26 +3520,28 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="H11" s="5">
-        <v>2</v>
+        <f t="shared" ref="H11" si="2">F11</f>
+        <v>1</v>
       </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11"/>
       <c r="V11"/>
@@ -2971,96 +3552,350 @@
       <c r="AA11"/>
       <c r="AB11"/>
     </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13" si="3">E13</f>
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="5">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="P2:U2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B1:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="J7:V9 J11:V11">
-    <cfRule type="expression" dxfId="97" priority="196">
+  <conditionalFormatting sqref="J15:V15 J10:V10 J7:V7">
+    <cfRule type="expression" dxfId="137" priority="236">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="198">
+    <cfRule type="expression" dxfId="136" priority="238">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="199">
+    <cfRule type="expression" dxfId="135" priority="239">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="200">
+    <cfRule type="expression" dxfId="134" priority="240">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="201">
+    <cfRule type="expression" dxfId="133" priority="241">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="202">
+    <cfRule type="expression" dxfId="132" priority="242">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="206">
+    <cfRule type="expression" dxfId="131" priority="246">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="207">
+    <cfRule type="expression" dxfId="130" priority="247">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12 D12:AS12">
-    <cfRule type="expression" dxfId="89" priority="197">
+  <conditionalFormatting sqref="B16 D16:AS16">
+    <cfRule type="expression" dxfId="129" priority="237">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:V6">
-    <cfRule type="expression" dxfId="88" priority="203">
+    <cfRule type="expression" dxfId="128" priority="243">
       <formula>K$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:V10">
-    <cfRule type="expression" dxfId="87" priority="4">
+  <conditionalFormatting sqref="J12:V12">
+    <cfRule type="expression" dxfId="127" priority="44">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5">
+    <cfRule type="expression" dxfId="126" priority="45">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="6">
+    <cfRule type="expression" dxfId="125" priority="46">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="7">
+    <cfRule type="expression" dxfId="124" priority="47">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="8">
+    <cfRule type="expression" dxfId="123" priority="48">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="9">
+    <cfRule type="expression" dxfId="122" priority="49">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="10">
+    <cfRule type="expression" dxfId="121" priority="50">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="120" priority="51">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="79" priority="3">
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="119" priority="43">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="118" priority="42">
       <formula>J$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="117" priority="41">
       <formula>J$6=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:V9">
+    <cfRule type="expression" dxfId="116" priority="33">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="34">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="35">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="36">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="37">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="38">
+      <formula>J$6=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:V8">
+    <cfRule type="expression" dxfId="108" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="30">
+      <formula>J$6=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:V11">
+    <cfRule type="expression" dxfId="100" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="22">
+      <formula>J$6=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:V14">
+    <cfRule type="expression" dxfId="92" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="14">
+      <formula>J$6=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:V13">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>J$6=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
@@ -3068,8 +3903,8 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="J4" xr:uid="{FE66F00E-4808-4FA6-B27D-DD9A0496B9BB}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="O2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="O3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="M1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="M2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="J5" xr:uid="{016DDAC7-B9D9-486B-B1CB-D85F7B26C725}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B5:D6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="E5:E6" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
@@ -3084,7 +3919,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3128,112 +3963,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="10"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="10"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="62"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="10"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA3"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="2:29" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="11">
         <f ca="1">WEEKNUM(TODAY())</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>33</v>
+      <c r="B5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="60" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -3256,14 +4091,14 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="3">
         <v>10</v>
       </c>
@@ -3307,45 +4142,45 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="2:29" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:29" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26">
         <v>13</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="30">
+      <c r="F7" s="26">
+        <v>3</v>
+      </c>
+      <c r="G7" s="26">
         <v>13</v>
       </c>
-      <c r="F7" s="30">
-        <v>3</v>
-      </c>
-      <c r="G7" s="30">
-        <v>13</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="H7" s="26">
         <v>3</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="5">
@@ -3374,10 +4209,10 @@
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="5">
@@ -3406,10 +4241,10 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="5">
@@ -3438,7 +4273,7 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -3468,10 +4303,10 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5">
@@ -3500,10 +4335,10 @@
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="5">
@@ -3532,10 +4367,10 @@
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="5">
@@ -3564,10 +4399,10 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="5">
@@ -3610,95 +4445,95 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:V15 J7:V12">
-    <cfRule type="expression" dxfId="76" priority="42">
+    <cfRule type="expression" dxfId="84" priority="42">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="44">
+    <cfRule type="expression" dxfId="83" priority="44">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="45">
+    <cfRule type="expression" dxfId="82" priority="45">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="46">
+    <cfRule type="expression" dxfId="81" priority="46">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="47">
+    <cfRule type="expression" dxfId="80" priority="47">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="48">
+    <cfRule type="expression" dxfId="79" priority="48">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="78" priority="50">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="51">
+    <cfRule type="expression" dxfId="77" priority="51">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 D16:AS16">
-    <cfRule type="expression" dxfId="68" priority="43">
+    <cfRule type="expression" dxfId="76" priority="43">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:V6">
-    <cfRule type="expression" dxfId="67" priority="49">
+    <cfRule type="expression" dxfId="75" priority="49">
       <formula>J$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:V14">
-    <cfRule type="expression" dxfId="66" priority="18">
+    <cfRule type="expression" dxfId="74" priority="18">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="19">
+    <cfRule type="expression" dxfId="73" priority="19">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="21">
+    <cfRule type="expression" dxfId="71" priority="21">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="22">
+    <cfRule type="expression" dxfId="70" priority="22">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="23">
+    <cfRule type="expression" dxfId="69" priority="23">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="24">
+    <cfRule type="expression" dxfId="68" priority="24">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="67" priority="25">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:V13">
-    <cfRule type="expression" dxfId="58" priority="10">
+    <cfRule type="expression" dxfId="66" priority="10">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="11">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="13">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="61" priority="15">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="17">
+    <cfRule type="expression" dxfId="59" priority="17">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3762,112 +4597,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="10"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="10"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="62"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="10"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA3"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="2:29" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="11">
         <f ca="1">WEEKNUM(TODAY())</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>33</v>
+      <c r="B5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="60" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -3890,14 +4725,14 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="3">
         <v>10</v>
       </c>
@@ -3941,42 +4776,42 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="2:29" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B7" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="30">
+    <row r="7" spans="2:29" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26">
         <v>16</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="26">
         <v>3</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="26">
         <v>16</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="26">
         <v>3</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4006,7 +4841,7 @@
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4036,7 +4871,7 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4066,7 +4901,7 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -4096,7 +4931,7 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4126,7 +4961,7 @@
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -4156,7 +4991,7 @@
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -4186,7 +5021,7 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -4230,43 +5065,43 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="J7:V15">
-    <cfRule type="expression" dxfId="49" priority="42">
+    <cfRule type="expression" dxfId="57" priority="42">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="56" priority="44">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="45">
+    <cfRule type="expression" dxfId="55" priority="45">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="54" priority="46">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="50">
+    <cfRule type="expression" dxfId="51" priority="50">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 D16:AS16">
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:V6">
-    <cfRule type="expression" dxfId="40" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>J$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4330,112 +5165,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="10"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="10"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="62"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="2:29" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="10"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA3"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="2:29" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="11">
         <f ca="1">WEEKNUM(TODAY())</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>33</v>
+      <c r="B5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="60" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -4458,14 +5293,14 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="3">
         <v>10</v>
       </c>
@@ -4509,42 +5344,42 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="2:29" s="35" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+    <row r="7" spans="2:29" s="30" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28">
         <v>19</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="28">
         <v>3</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="28">
         <v>19</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="28">
         <v>3</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4574,10 +5409,10 @@
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="5">
@@ -4606,10 +5441,10 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="5">
@@ -4638,10 +5473,10 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="5">
@@ -4670,10 +5505,10 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5">
@@ -4702,7 +5537,7 @@
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -4732,7 +5567,7 @@
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -4762,7 +5597,7 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -4806,95 +5641,95 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="J13:V15 J7:V10">
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="45" priority="44">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="46">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="47">
+    <cfRule type="expression" dxfId="42" priority="47">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="48">
+    <cfRule type="expression" dxfId="41" priority="48">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="51">
+    <cfRule type="expression" dxfId="39" priority="51">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 D16:AS16">
-    <cfRule type="expression" dxfId="30" priority="43">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:V6">
-    <cfRule type="expression" dxfId="29" priority="49">
+    <cfRule type="expression" dxfId="37" priority="49">
       <formula>J$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:V12">
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="35">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38">
+    <cfRule type="expression" dxfId="32" priority="38">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="39">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="41">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:V11">
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="31">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>J$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="32">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="33">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4953,127 +5788,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="10"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="2:32" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="10"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="62"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
     </row>
     <row r="3" spans="2:32" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="10"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AC3"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
     </row>
     <row r="4" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="40">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="35">
         <f ca="1">TODAY()</f>
         <v>43181</v>
       </c>
-      <c r="Q4" s="41"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="2:32" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>33</v>
+      <c r="B5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="56" t="s">
+      <c r="F5" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="56" t="s">
+      <c r="I5" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="60" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="17" t="s">
@@ -5096,123 +5931,123 @@
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="39">
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="34">
         <v>43164</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="34">
         <v>43165</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="34">
         <v>43166</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="34">
         <v>43167</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="34">
         <v>43168</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="37">
         <v>43169</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="37">
         <v>43170</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="34">
         <v>43171</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="34">
         <v>43172</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="34">
         <v>43173</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="34">
         <v>43174</v>
       </c>
-      <c r="W6" s="39">
+      <c r="W6" s="34">
         <v>43175</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="37">
         <v>43176</v>
       </c>
-      <c r="Y6" s="42">
+      <c r="Y6" s="37">
         <v>43177</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="34">
         <v>43178</v>
       </c>
-      <c r="AA6" s="39">
+      <c r="AA6" s="34">
         <v>43179</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="34">
         <v>43180</v>
       </c>
-      <c r="AC6" s="39">
+      <c r="AC6" s="34">
         <v>43181</v>
       </c>
-      <c r="AD6" s="39">
+      <c r="AD6" s="34">
         <v>43182</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AE6" s="37">
         <v>43183</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="37">
         <v>43184</v>
       </c>
     </row>
-    <row r="7" spans="2:32" s="35" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+    <row r="7" spans="2:32" s="30" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28">
         <v>19</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="28">
         <f>16*4*3</f>
         <v>192</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="28">
         <f>F7/8</f>
         <v>24</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="28">
         <v>19</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AF7" s="34"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AF7" s="29"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -5220,7 +6055,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="45">
+      <c r="G8" s="40">
         <f t="shared" ref="G8:G15" si="0">F8/8</f>
         <v>0</v>
       </c>
@@ -5234,8 +6069,8 @@
       <c r="K8" s="6">
         <v>0</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
       <c r="W8"/>
       <c r="Y8"/>
       <c r="AA8"/>
@@ -5244,17 +6079,17 @@
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="5">
         <v>20</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="45">
+      <c r="G9" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5268,8 +6103,8 @@
       <c r="K9" s="6">
         <v>0</v>
       </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
       <c r="W9"/>
       <c r="Y9"/>
       <c r="AA9"/>
@@ -5278,17 +6113,17 @@
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="5">
         <v>20</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="45">
+      <c r="G10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5302,8 +6137,8 @@
       <c r="K10" s="6">
         <v>0</v>
       </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
       <c r="W10"/>
       <c r="Y10"/>
       <c r="AA10"/>
@@ -5312,17 +6147,17 @@
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="5">
         <v>20</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="45">
+      <c r="G11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5336,8 +6171,8 @@
       <c r="K11" s="6">
         <v>0</v>
       </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
       <c r="W11"/>
       <c r="Y11"/>
       <c r="AA11"/>
@@ -5346,17 +6181,17 @@
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5">
         <v>20</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="45">
+      <c r="G12" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5370,8 +6205,8 @@
       <c r="K12" s="6">
         <v>0</v>
       </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
       <c r="W12"/>
       <c r="Y12"/>
       <c r="AA12"/>
@@ -5380,7 +6215,7 @@
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -5388,7 +6223,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="45">
+      <c r="G13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5402,8 +6237,8 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
       <c r="W13"/>
       <c r="Y13"/>
       <c r="AA13"/>
@@ -5412,7 +6247,7 @@
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -5420,7 +6255,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="45">
+      <c r="G14" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5434,8 +6269,8 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
       <c r="W14"/>
       <c r="Y14"/>
       <c r="AA14"/>
@@ -5444,7 +6279,7 @@
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -5452,7 +6287,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="45">
+      <c r="G15" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5466,8 +6301,8 @@
       <c r="K15" s="6">
         <v>0</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
       <c r="W15"/>
       <c r="Y15"/>
       <c r="AA15"/>
@@ -5475,65 +6310,65 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="18" x14ac:dyDescent="0.35">
-      <c r="C16" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47">
+      <c r="C16" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42">
         <f>SUM(F8:F15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="42">
         <f t="shared" ref="G16" si="1">SUM(G8:G15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="50">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="45">
         <f>SUM(K8:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C17" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47">
+      <c r="C17" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42">
         <f>F7</f>
         <v>192</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="42">
         <f t="shared" ref="G17" si="2">G7</f>
         <v>24</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49">
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44">
         <f>F16-F17</f>
         <v>-192</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="44">
         <f t="shared" ref="G18" si="3">G16-G17</f>
         <v>-24</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="6">
         <f>K16-K17</f>
         <v>0</v>
@@ -5557,48 +6392,48 @@
     <mergeCell ref="B1:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:AF15">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="25">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>L$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="28">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 D16:J16 L16:AF16">
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:AF6">
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="10" priority="26">
       <formula>L$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>L$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
